--- a/MlPipeLine/train_tools/qna/train_data.xlsx
+++ b/MlPipeLine/train_tools/qna/train_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
   <si>
     <t xml:space="preserve">의도(Intent)</t>
   </si>
@@ -126,6 +126,9 @@
     <t xml:space="preserve">욕하면 나빠요 ㅠ</t>
   </si>
   <si>
+    <t xml:space="preserve">http://127.0.0.1:5000/static/image/gorilla-angry.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">모니터링</t>
   </si>
   <si>
@@ -138,7 +141,7 @@
     <t xml:space="preserve">네임스페이스 목록은 아래와 같습니다.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://controller.chatops.ga/kube/list_namespaces</t>
+    <t xml:space="preserve">http://127.0.0.1:8080/</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
@@ -344,11 +347,11 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.23"/>
@@ -642,28 +645,31 @@
       <c r="D17" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="E17" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="G17" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -674,6 +680,9 @@
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E17" r:id="rId1" display="http://127.0.0.1:5000/static/image/gorilla-angry.png"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/MlPipeLine/train_tools/qna/train_data.xlsx
+++ b/MlPipeLine/train_tools/qna/train_data.xlsx
@@ -123,7 +123,7 @@
     <t xml:space="preserve">욕설</t>
   </si>
   <si>
-    <t xml:space="preserve">욕하면 나빠요 ㅠ</t>
+    <t xml:space="preserve">욕이나 비속어는 지원하지 않습니다!</t>
   </si>
   <si>
     <t xml:space="preserve">http://127.0.0.1:5000/static/image/gorilla-angry.png</t>
@@ -348,10 +348,10 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.23"/>
